--- a/data/成绩库.xlsx
+++ b/data/成绩库.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="学生库" sheetId="10" r:id="rId1"/>
-    <sheet name="试题库" sheetId="12" r:id="rId2"/>
+    <sheet name="试题及答案库" sheetId="12" r:id="rId2"/>
     <sheet name="阅卷结果库" sheetId="1" r:id="rId3"/>
     <sheet name="成绩库" sheetId="2" r:id="rId4"/>
     <sheet name="试卷分析" sheetId="3" r:id="rId5"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="112">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,14 +70,6 @@
   </si>
   <si>
     <t>正确率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答对题号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答错题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -481,7 +473,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +483,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,9 +505,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -818,30 +817,30 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="2"/>
+    <col min="3" max="4" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -862,34 +861,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>86</v>
-      </c>
-      <c r="I1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -902,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -913,38 +912,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>107</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -955,94 +954,94 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1050,10 +1049,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1061,10 +1060,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1072,10 +1071,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1083,10 +1082,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1094,10 +1093,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1105,10 +1104,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1116,10 +1115,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1127,10 +1126,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1138,10 +1137,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1149,10 +1148,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1169,7 +1168,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1177,8 +1176,8 @@
     <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="8" width="8.88671875" style="2"/>
+    <col min="5" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
     <col min="9" max="9" width="6.5546875" customWidth="1"/>
     <col min="10" max="10" width="6.44140625" customWidth="1"/>
   </cols>
@@ -1188,48 +1187,48 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" t="s">
         <v>99</v>
-      </c>
-      <c r="L1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1243,13 +1242,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1258,18 +1257,18 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1278,18 +1277,18 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1303,13 +1302,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1323,13 +1322,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1343,13 +1342,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1363,13 +1362,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1378,18 +1377,18 @@
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1398,18 +1397,18 @@
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1423,13 +1422,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1443,13 +1442,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1463,33 +1462,33 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
         <v>100</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>13</v>
-      </c>
-      <c r="L14" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1498,18 +1497,18 @@
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1523,13 +1522,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1543,13 +1542,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1563,13 +1562,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1583,13 +1582,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1598,18 +1597,18 @@
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1618,18 +1617,18 @@
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1643,7 +1642,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1657,7 +1656,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1671,7 +1670,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1685,7 +1684,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1694,12 +1693,12 @@
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1708,7 +1707,7 @@
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1720,32 +1719,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
@@ -1757,25 +1755,16 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
         <v>80</v>
       </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F3">
         <v>2</v>
       </c>
@@ -1783,7 +1772,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F4">
         <v>3</v>
       </c>
@@ -1791,7 +1780,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F5">
         <v>4</v>
       </c>
@@ -1799,7 +1788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>5</v>
       </c>
@@ -1807,7 +1796,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>6</v>
       </c>
@@ -1815,7 +1804,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>7</v>
       </c>
@@ -1823,7 +1812,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>8</v>
       </c>
@@ -1831,7 +1820,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>9</v>
       </c>
@@ -1839,7 +1828,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>10</v>
       </c>
@@ -1847,7 +1836,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>11</v>
       </c>
@@ -1855,7 +1844,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>12</v>
       </c>
@@ -1863,7 +1852,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>13</v>
       </c>
@@ -1871,7 +1860,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>14</v>
       </c>
@@ -1879,7 +1868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>15</v>
       </c>
@@ -1944,20 +1933,20 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="4" width="8.88671875" style="2"/>
+    <col min="3" max="4" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
@@ -1967,28 +1956,28 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
         <v>90</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>91</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>92</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>93</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
         <v>94</v>
-      </c>
-      <c r="L1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2101,55 +2090,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2173,46 +2162,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
         <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2233,34 +2222,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2281,40 +2270,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" t="s">
-        <v>69</v>
-      </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
         <v>72</v>
-      </c>
-      <c r="K1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
